--- a/docs/Presentation2/result.xlsx
+++ b/docs/Presentation2/result.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abema\stackMachine\docs\第2回発表資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abema\stackMachine\docs\Presentation2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F0ECDC-BEF6-46CB-A572-3C6FD2CF765E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63A75BB-6881-4466-B3FC-2ED3BF47E3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>C++実装</t>
     <rPh sb="3" eb="5">
@@ -61,6 +61,9 @@
   <si>
     <t>ave</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -282,10 +285,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -295,21 +311,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -744,11 +748,13 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="859502880"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1795,7 +1801,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1816,16 +1822,16 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="5"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
@@ -1884,25 +1890,25 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="3">
         <v>11.5566</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="8">
         <v>10.660299999999999</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="4">
         <v>11.5778</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="8">
         <v>9.7309000000000001</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="8">
         <v>12.721500000000001</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="4">
         <v>25.253699999999998</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N3" s="12">
         <v>154.58699999999999</v>
       </c>
     </row>
@@ -1921,25 +1927,25 @@
       <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="5">
         <v>10.460800000000001</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="9">
         <v>11.0242</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4">
         <v>10.3316</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="9">
         <v>9.9442000000000004</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="9">
         <v>12.3759</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4">
         <v>24.262599999999999</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="13">
         <v>153.14850000000001</v>
       </c>
     </row>
@@ -1958,25 +1964,25 @@
       <c r="G5" s="1">
         <v>3</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="5">
         <v>11.057399999999999</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="9">
         <v>10.2941</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5">
         <v>12.9122</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="9">
         <v>11.299300000000001</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="9">
         <v>11.771100000000001</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5">
         <v>24.624600000000001</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="13">
         <v>154.8835</v>
       </c>
     </row>
@@ -1991,25 +1997,25 @@
       <c r="G6" s="1">
         <v>4</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="5">
         <v>9.9700000000000006</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="9">
         <v>10.323</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6">
         <v>13.2096</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="9">
         <v>12.375400000000001</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="9">
         <v>11.990600000000001</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6">
         <v>27.294799999999999</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="13">
         <v>154.6893</v>
       </c>
     </row>
@@ -2024,25 +2030,25 @@
       <c r="G7" s="1">
         <v>5</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="5">
         <v>10.702199999999999</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="9">
         <v>10.6007</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7">
         <v>11.137</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="9">
         <v>11.926299999999999</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="9">
         <v>11.8278</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7">
         <v>25.481200000000001</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="13">
         <v>153.76580000000001</v>
       </c>
     </row>
@@ -2057,25 +2063,25 @@
       <c r="G8" s="1">
         <v>6</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="5">
         <v>10.7727</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="9">
         <v>10.2179</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8">
         <v>10.718400000000001</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="9">
         <v>11.174799999999999</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="9">
         <v>11.518700000000001</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8">
         <v>24.2349</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="13">
         <v>159.01249999999999</v>
       </c>
     </row>
@@ -2083,25 +2089,25 @@
       <c r="G9" s="1">
         <v>7</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="5">
         <v>10.8675</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="9">
         <v>11.081099999999999</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9">
         <v>10.937200000000001</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="9">
         <v>11.387</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="9">
         <v>12.781700000000001</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9">
         <v>25.040099999999999</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="13">
         <v>154.1233</v>
       </c>
     </row>
@@ -2109,25 +2115,25 @@
       <c r="G10" s="1">
         <v>8</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="5">
         <v>10.4428</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="9">
         <v>10.383100000000001</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10">
         <v>10.6713</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="9">
         <v>11.853199999999999</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="9">
         <v>11.9903</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10">
         <v>25.965800000000002</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="13">
         <v>156.15170000000001</v>
       </c>
     </row>
@@ -2135,25 +2141,25 @@
       <c r="G11" s="1">
         <v>9</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="5">
         <v>11.414899999999999</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="9">
         <v>10.387600000000001</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11">
         <v>10.676500000000001</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="9">
         <v>10.2361</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="9">
         <v>11.4811</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11">
         <v>25.129300000000001</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="13">
         <v>155.10980000000001</v>
       </c>
     </row>
@@ -2161,30 +2167,30 @@
       <c r="G12" s="1">
         <v>10</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="6">
         <v>13.0524</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="10">
         <v>10.486800000000001</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="7">
         <v>10.2187</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="10">
         <v>10.565</v>
       </c>
-      <c r="L12" s="14">
+      <c r="L12" s="10">
         <v>12.3103</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12">
         <v>25.642399999999999</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="13">
         <v>152.73169999999999</v>
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H13" s="1">
@@ -2217,16 +2223,16 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="5"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="16"/>
     </row>
     <row r="16" spans="1:14">
       <c r="G16" s="2"/>
@@ -2263,204 +2269,195 @@
       <c r="G17" s="1">
         <v>1</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="3">
         <v>12.273</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="8">
         <v>26.093299999999999</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="4">
         <v>184.00790000000001</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="8">
         <v>1735.1210000000001</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="17"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="12"/>
     </row>
     <row r="18" spans="7:14">
       <c r="G18" s="1">
         <v>2</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="5">
         <v>11.7997</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="9">
         <v>26.346699999999998</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18">
         <v>183.66849999999999</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="9">
         <v>1752.8679</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="18"/>
+      <c r="L18" s="9"/>
+      <c r="N18" s="13"/>
     </row>
     <row r="19" spans="7:14">
       <c r="G19" s="1">
         <v>3</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="5">
         <v>12.7249</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="9">
         <v>25.5928</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19">
         <v>183.62350000000001</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="9">
         <v>1740.3412000000001</v>
       </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="18"/>
+      <c r="L19" s="9"/>
+      <c r="N19" s="13"/>
     </row>
     <row r="20" spans="7:14">
       <c r="G20" s="1">
         <v>4</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="5">
         <v>13.744899999999999</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="9">
         <v>25.874500000000001</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20">
         <v>184.45529999999999</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="9">
         <v>1746.9194</v>
       </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="18"/>
+      <c r="L20" s="9"/>
+      <c r="N20" s="13"/>
     </row>
     <row r="21" spans="7:14">
       <c r="G21" s="1">
         <v>5</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="5">
         <v>13.8141</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="9">
         <v>27.790900000000001</v>
       </c>
-      <c r="J21" s="16">
+      <c r="J21">
         <v>184.7542</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="9">
         <v>1749.2784999999999</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="18"/>
+      <c r="L21" s="9"/>
+      <c r="N21" s="13"/>
     </row>
     <row r="22" spans="7:14">
       <c r="G22" s="1">
         <v>6</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="5">
         <v>12.6699</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="9">
         <v>25.5153</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22">
         <v>183.8948</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="9">
         <v>1765.2353000000001</v>
       </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="18"/>
+      <c r="L22" s="9"/>
+      <c r="N22" s="13"/>
     </row>
     <row r="23" spans="7:14">
       <c r="G23" s="1">
         <v>7</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="5">
         <v>12.755699999999999</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="9">
         <v>30.227</v>
       </c>
-      <c r="J23" s="16">
+      <c r="J23">
         <v>184.52619999999999</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K23" s="9">
         <v>1753.0700999999999</v>
       </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="18"/>
+      <c r="L23" s="9"/>
+      <c r="N23" s="13"/>
     </row>
     <row r="24" spans="7:14">
       <c r="G24" s="1">
         <v>8</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="5">
         <v>13.9078</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="9">
         <v>26.719200000000001</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24">
         <v>185.19460000000001</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="9">
         <v>1742.3733</v>
       </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="18"/>
+      <c r="L24" s="9"/>
+      <c r="N24" s="13"/>
     </row>
     <row r="25" spans="7:14">
       <c r="G25" s="1">
         <v>9</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="5">
         <v>14.873100000000001</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="9">
         <v>26.059799999999999</v>
       </c>
-      <c r="J25" s="16">
+      <c r="J25">
         <v>184.10159999999999</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K25" s="9">
         <v>1747.1891000000001</v>
       </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="18"/>
+      <c r="L25" s="9"/>
+      <c r="N25" s="13"/>
     </row>
     <row r="26" spans="7:14">
       <c r="G26" s="1">
         <v>10</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="6">
         <v>12.7219</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="10">
         <v>25.446899999999999</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="7">
         <v>183.4803</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="10">
         <v>1746.1857</v>
       </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="18"/>
+      <c r="L26" s="10"/>
+      <c r="N26" s="13"/>
     </row>
     <row r="27" spans="7:14">
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="11" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="1">
@@ -2479,17 +2476,14 @@
         <f t="shared" ref="K27" si="1">AVERAGE(K17:K26)</f>
         <v>1747.85815</v>
       </c>
-      <c r="L27" s="1" t="e">
-        <f t="shared" ref="L27" si="2">AVERAGE(L17:L26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M27" s="1" t="e">
-        <f t="shared" ref="M27" si="3">AVERAGE(M17:M26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="1" t="e">
-        <f t="shared" ref="N27" si="4">AVERAGE(N17:N26)</f>
-        <v>#DIV/0!</v>
+      <c r="L27" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
